--- a/Data/Transitions/19351936Translation.xlsx
+++ b/Data/Transitions/19351936Translation.xlsx
@@ -205,10 +205,10 @@
     <t>{90.0: 1.0}</t>
   </si>
   <si>
-    <t>{91.0: 1.0, 92.0: 0.0019358061696015986}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9596602972399151}</t>
+    <t>{91.0: 1.0, 92.0: 0.0019024240564590364}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.9603559374041117}</t>
   </si>
   <si>
     <t>{93.0: 1.0}</t>
@@ -244,13 +244,13 @@
     <t>{103.0: 1.0}</t>
   </si>
   <si>
-    <t>{104.0: 1.0, 92.0: 0.03840389659048333}</t>
+    <t>{104.0: 1.0, 92.0: 0.03774163853942927}</t>
   </si>
   <si>
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 1.0, 543.0: 0.0010925976509150504}</t>
+    <t>{107.0: 1.0, 543.0: 0.0011476115334959117}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -319,7 +319,7 @@
     <t>{167.0: 1.0}</t>
   </si>
   <si>
-    <t>{168.0: 0.9984929829518696}</t>
+    <t>{168.0: 0.9984805318138652}</t>
   </si>
   <si>
     <t>{169.0: 1.0}</t>
@@ -334,10 +334,10 @@
     <t>{172.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 1.0, 404.0: 0.0029191753329684362}</t>
-  </si>
-  <si>
-    <t>{174.0: 1.0, 502.0: 0.006638636866563399}</t>
+    <t>{173.0: 1.0, 404.0: 0.002955665024630542}</t>
+  </si>
+  <si>
+    <t>{174.0: 1.0, 502.0: 0.0066181336863004635}</t>
   </si>
   <si>
     <t>{175.0: 1.0}</t>
@@ -361,10 +361,10 @@
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.9977983777520278}</t>
-  </si>
-  <si>
-    <t>{183.0: 1.0, 182.0: 0.0012746234067207416}</t>
+    <t>{182.0: 0.9977896696137738}</t>
+  </si>
+  <si>
+    <t>{183.0: 1.0, 182.0: 0.0012796649604467194}</t>
   </si>
   <si>
     <t>{184.0: 1.0}</t>
@@ -430,7 +430,7 @@
     <t>{221.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 1.0, 490.0: 0.002506265664160401, 503.0: 0.0014675052410901468}</t>
+    <t>{222.0: 1.0, 490.0: 0.0025157232704402514, 503.0: 0.0014743049705139006}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -484,6 +484,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -577,7 +580,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9623828835127954}</t>
+    <t>{277.0: 0.9623512946116165}</t>
   </si>
   <si>
     <t>{278.0: 1.0}</t>
@@ -592,7 +595,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{282.0: 1.0, 182.0: 0.0009269988412514484}</t>
+    <t>{282.0: 1.0, 182.0: 0.0009306654257794323}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -703,9 +706,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 1.0}</t>
   </si>
   <si>
@@ -724,7 +724,7 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.9970808246670315}</t>
+    <t>{404.0: 0.9970443349753695}</t>
   </si>
   <si>
     <t>{405.0: 1.0}</t>
@@ -754,7 +754,7 @@
     <t>{414.0: 1.0}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.03761711648720459}</t>
+    <t>{415.0: 1.0, 277.0: 0.03764870538838348}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -778,7 +778,7 @@
     <t>{423.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174}</t>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
@@ -880,7 +880,7 @@
     <t>{489.0: 1.0}</t>
   </si>
   <si>
-    <t>{490.0: 0.9974937343358395}</t>
+    <t>{490.0: 0.9974842767295597}</t>
   </si>
   <si>
     <t>{491.0: 1.0}</t>
@@ -916,10 +916,10 @@
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.9933613631334366}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9985324947589098}</t>
+    <t>{502.0: 0.9933818663136995}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9985256950294861}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -973,7 +973,7 @@
     <t>{542.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.9989074023490849}</t>
+    <t>{543.0: 0.998852388466504}</t>
   </si>
   <si>
     <t>{544.0: 1.0}</t>
@@ -1042,7 +1042,7 @@
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.9875983464461928}</t>
+    <t>{585.0: 0.9874713727603395}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1075,7 +1075,7 @@
     <t>{596.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.9973904244554508}</t>
+    <t>{597.0: 0.9973572083490643}</t>
   </si>
   <si>
     <t>{598.0: 1.0}</t>
@@ -1186,7 +1186,7 @@
     <t>{633.0: 1.0}</t>
   </si>
   <si>
-    <t>{634.0: 0.8069981583793738}</t>
+    <t>{634.0: 0.8128571428571428}</t>
   </si>
   <si>
     <t>{635.0: 1.0}</t>
@@ -1246,7 +1246,7 @@
     <t>{694.0: 1.0}</t>
   </si>
   <si>
-    <t>{695.0: 1.0, 857.0: 0.0024748871742611735}</t>
+    <t>{695.0: 1.0, 857.0: 0.0024741667879493523}</t>
   </si>
   <si>
     <t>{696.0: 1.0}</t>
@@ -1264,7 +1264,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.8134970424807313}</t>
+    <t>{702.0: 0.8133632286995516}</t>
   </si>
   <si>
     <t>{703.0: 1.0}</t>
@@ -1435,7 +1435,7 @@
     <t>{781.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 1.0, 168.0: 0.001507017048130357, 930.0: 0.0003687315634218289}</t>
+    <t>{782.0: 1.0, 168.0: 0.0015194681861348527, 930.0: 0.000380331431676175}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1537,7 +1537,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9975251128257389}</t>
+    <t>{857.0: 0.9975258332120507}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1666,7 +1666,7 @@
     <t>{929.0: 1.0}</t>
   </si>
   <si>
-    <t>{930.0: 0.9996312684365781}</t>
+    <t>{930.0: 0.9996196685683238}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1705,7 +1705,7 @@
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 1.0, 634.0: 0.19300184162062614}</t>
+    <t>{943.0: 1.0, 634.0: 0.18714285714285714}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
@@ -1762,16 +1762,16 @@
     <t>{92.0: 1.0}</t>
   </si>
   <si>
-    <t>{104.0: 0.8253337120136325, 92.0: 0.17466628798636752}</t>
-  </si>
-  <si>
-    <t>{107.0: 0.9991815856777494, 543.0: 0.0008184143222506394}</t>
+    <t>{104.0: 0.8344103392568659, 92.0: 0.16558966074313408}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.9991869092387438, 543.0: 0.0008130907612562252}</t>
   </si>
   <si>
     <t>{168.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.9936051159072742, 404.0: 0.006394884092725819}</t>
+    <t>{173.0: 0.9936119244077721, 404.0: 0.006388075592227841}</t>
   </si>
   <si>
     <t>{174.0: 0.9852869053457577, 502.0: 0.014713094654242276}</t>
@@ -1780,25 +1780,25 @@
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{183.0: 0.9962354551676934, 182.0: 0.0037645448323066393}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.9910496338486574, 490.0: 0.0032546786004882017, 503.0: 0.005695687550854353}</t>
+    <t>{183.0: 0.9964005235602095, 182.0: 0.003599476439790576}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.9910277324632952, 490.0: 0.0032626427406199023, 503.0: 0.005709624796084829}</t>
   </si>
   <si>
     <t>{277.0: 1.0}</t>
   </si>
   <si>
-    <t>{282.0: 0.996816553919618, 182.0: 0.0031834460803820135}</t>
+    <t>{282.0: 0.9967186218211649, 182.0: 0.003281378178835111}</t>
   </si>
   <si>
     <t>{404.0: 1.0}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471698, 277.0: 0.1268867924528302}</t>
-  </si>
-  <si>
-    <t>{424.0: 0.9520371325425477, 585.0: 0.0479628674574523}</t>
+    <t>{415.0: 0.8729333963155409, 277.0: 0.12706660368445913}</t>
+  </si>
+  <si>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.047888774459320285}</t>
   </si>
   <si>
     <t>{490.0: 1.0}</t>
@@ -1822,13 +1822,13 @@
     <t>{634.0: 1.0}</t>
   </si>
   <si>
-    <t>{695.0: 0.9938114306516199, 857.0: 0.006188569348380051}</t>
+    <t>{695.0: 0.9937865497076024, 857.0: 0.0062134502923976605}</t>
   </si>
   <si>
     <t>{702.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.9974744701877677, 168.0: 0.001756890304161634, 930.0: 0.0007686395080707148}</t>
+    <t>{782.0: 0.997486613484865, 168.0: 0.001748442793137362, 930.0: 0.0007649437219975958}</t>
   </si>
   <si>
     <t>{857.0: 1.0}</t>
@@ -1837,7 +1837,7 @@
     <t>{930.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.9131443726172717, 634.0: 0.08685562738272833}</t>
+    <t>{943.0: 0.9149350649350649, 634.0: 0.08506493506493507}</t>
   </si>
 </sst>
 </file>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3908,7 +3908,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4029,7 +4029,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4084,7 +4084,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4161,7 +4161,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4194,7 +4194,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4216,7 +4216,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4238,29 +4238,29 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>590</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>188</v>
+        <v>590</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4293,29 +4293,29 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>591</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>591</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4381,7 +4381,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4436,7 +4436,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4458,7 +4458,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4469,7 +4469,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4491,7 +4491,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4579,7 +4579,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4656,7 +4656,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -4700,7 +4700,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
